--- a/biology/Zoologie/Dolichopodidae/Dolichopodidae.xlsx
+++ b/biology/Zoologie/Dolichopodidae/Dolichopodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dolichopodidae sont une famille de petites mouches prédatrices, à longues pattes, que l'on rencontre principalement dans les milieux humides. On a recensé plus de 7 300 espèces réparties dans environ 200 genres. Leur variété dans un milieu est généralement un indicateur de qualité. Ils se nourrissent principalement des larves d'autres diptères des familles Chironomidae, Ceratopogonidae et Culicidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dolichopodidae sont une famille de petites mouches prédatrices, à longues pattes, que l'on rencontre principalement dans les milieux humides. On a recensé plus de 7 300 espèces réparties dans environ 200 genres. Leur variété dans un milieu est généralement un indicateur de qualité. Ils se nourrissent principalement des larves d'autres diptères des familles Chironomidae, Ceratopogonidae et Culicidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 févr. 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 févr. 2013) :
 genre Abatetia
 genre Abbemyia
 genre Achalcus
@@ -773,9 +787,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (27 févr. 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (27 févr. 2013) :
 sous-famille Achalcinae Grootaert &amp; Meuffels, 1997
 sous-famille Diaphorinae
 sous-famille Dolichopodinae
